--- a/Data/Decalcified Data.xlsx
+++ b/Data/Decalcified Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicks\Desktop\Research\Hawaiian Stable Isotopes\Thesis\Thesis Data\Decalcified-Macroalgae\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E850538C-E2EA-4493-A149-6D3DDB773E36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257ABBE9-E9A2-40C1-93DB-1AF38C63480D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Decal" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Percent" sheetId="6" r:id="rId4"/>
     <sheet name="decal-N15" sheetId="4" r:id="rId5"/>
     <sheet name="decal-per" sheetId="5" r:id="rId6"/>
+    <sheet name="decal-C13" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="116">
   <si>
     <t>ID #</t>
   </si>
@@ -4252,8 +4253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O31" activeCellId="9" sqref="O13 O15 O17 O19 O21 O23 O25 O27 O29 O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7401,7 +7402,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8165,7 +8166,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:J8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8672,7 +8673,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9003,4 +9004,216 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43072D7-8A23-4E6F-BE62-C26F1B648174}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="15">
+        <v>-1.7958806000000043</v>
+      </c>
+      <c r="B2" s="25">
+        <v>-23.250909800000006</v>
+      </c>
+      <c r="C2" s="15">
+        <v>-19.438690800000003</v>
+      </c>
+      <c r="D2" s="25">
+        <v>-21.202802999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="15">
+        <v>-3.0192357000000039</v>
+      </c>
+      <c r="B3" s="25">
+        <v>-23.525070400000004</v>
+      </c>
+      <c r="C3" s="15">
+        <v>-14.737921600000004</v>
+      </c>
+      <c r="D3" s="25">
+        <v>-20.177818200000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="15">
+        <v>-2.9665891000000046</v>
+      </c>
+      <c r="B4" s="25">
+        <v>-24.318413000000003</v>
+      </c>
+      <c r="C4" s="15">
+        <v>-17.699628400000005</v>
+      </c>
+      <c r="D4" s="25">
+        <v>-20.137067599999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="15">
+        <v>-3.6433483000000004</v>
+      </c>
+      <c r="B5" s="25">
+        <v>-22.331584900000003</v>
+      </c>
+      <c r="C5" s="15">
+        <v>-16.706238800000001</v>
+      </c>
+      <c r="D5" s="25">
+        <v>-19.276712800000006</v>
+      </c>
+      <c r="H5">
+        <f>1.7/SQRT(COUNT(B2:B10))</f>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="I5">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="15">
+        <v>-3.8456675000000011</v>
+      </c>
+      <c r="B6" s="25">
+        <v>-22.321090000000002</v>
+      </c>
+      <c r="C6" s="15">
+        <v>-15.222977</v>
+      </c>
+      <c r="D6" s="25">
+        <v>-20.107760600000006</v>
+      </c>
+      <c r="H6">
+        <v>-19.5</v>
+      </c>
+      <c r="I6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="15">
+        <v>-5.0096927999999972</v>
+      </c>
+      <c r="B7" s="25">
+        <v>-25.835735500000002</v>
+      </c>
+      <c r="C7" s="15">
+        <v>-19.1536203</v>
+      </c>
+      <c r="D7" s="25">
+        <v>-19.157177900000001</v>
+      </c>
+      <c r="H7">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="I7">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="15">
+        <v>-5.2796448000000007</v>
+      </c>
+      <c r="B8" s="25">
+        <v>-25.030954199999996</v>
+      </c>
+      <c r="C8" s="15">
+        <v>-18.186481700000005</v>
+      </c>
+      <c r="D8" s="25">
+        <v>-18.4729104</v>
+      </c>
+      <c r="H8">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="I8">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="15">
+        <v>-11.930126400000001</v>
+      </c>
+      <c r="B9" s="25">
+        <v>-27.3617597</v>
+      </c>
+      <c r="C9" s="15">
+        <v>-18.629602600000005</v>
+      </c>
+      <c r="D9" s="25">
+        <v>-18.972491800000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="15">
+        <v>-3.6011824000000034</v>
+      </c>
+      <c r="B10" s="25">
+        <v>-25.480957599999996</v>
+      </c>
+      <c r="C10" s="15">
+        <v>-17.539528400000005</v>
+      </c>
+      <c r="D10" s="25">
+        <v>-18.174316600000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C11" s="15">
+        <v>-19.069935700000002</v>
+      </c>
+      <c r="D11" s="25">
+        <v>-19.337501600000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <f>STDEV(A2:A10)/SQRT(COUNT(A2:A10))</f>
+        <v>0.98503880108967012</v>
+      </c>
+      <c r="I13">
+        <f>STDEV(B2:B10)/SQRT(COUNT(B2:B10))</f>
+        <v>0.56630398939807869</v>
+      </c>
+      <c r="J13">
+        <f>STDEV(C2:C11)/SQRT(COUNT(C2:C11))</f>
+        <v>0.51638274261471984</v>
+      </c>
+      <c r="K13">
+        <f>STDEV(D2:D11)/SQRT(COUNT(D2:D11))</f>
+        <v>0.28710394049681914</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>